--- a/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2023_top_box_office.xlsx
+++ b/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2023_top_box_office.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$635,171,975</t>
+          <t>$635,162,639</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$323,715,325</t>
+          <t>$323,704,080</t>
         </is>
       </c>
     </row>
@@ -520,2328 +520,2328 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Avatar: The Way of Water</t>
+          <t>Ant-Man and the Wasp: Quantumania</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$283,067,859</t>
+          <t>$214,504,909</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ant-Man and the Wasp: Quantumania</t>
+          <t>John Wick: Chapter 4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$214,504,909</t>
+          <t>$187,131,806</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>John Wick: Chapter 4</t>
+          <t>Sound of Freedom</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$187,131,806</t>
+          <t>$184,072,726</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sound of Freedom</t>
+          <t>Indiana Jones and the Dial of Destiny</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$184,038,874</t>
+          <t>$174,480,468</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Indiana Jones and the Dial of Destiny</t>
+          <t>Mission: Impossible - Dead Reckoning Part One</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$174,480,468</t>
+          <t>$172,135,383</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mission: Impossible - Dead Reckoning Part One</t>
+          <t>Transformers: Rise of the Beasts</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$172,135,383</t>
+          <t>$157,066,392</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Transformers: Rise of the Beasts</t>
+          <t>Creed III</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$157,066,392</t>
+          <t>$156,248,615</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Creed III</t>
+          <t>Elemental</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$156,248,615</t>
+          <t>$154,426,697</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Elemental</t>
+          <t>Fast X</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$154,426,697</t>
+          <t>$145,960,660</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fast X</t>
+          <t>Teenage Mutant Ninja Turtles: Mutant Mayhem</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$145,960,660</t>
+          <t>$118,380,473</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Puss in Boots: The Last Wish</t>
+          <t>Scream VI</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$129,870,190</t>
+          <t>$108,161,389</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Teenage Mutant Ninja Turtles: Mutant Mayhem</t>
+          <t>The Flash</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$118,376,239</t>
+          <t>$108,133,313</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Scream VI</t>
+          <t>M3GAN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$108,161,389</t>
+          <t>$95,043,350</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>The Flash</t>
+          <t>Dungeons &amp; Dragons: Honor Among Thieves</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$108,133,313</t>
+          <t>$93,277,026</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>M3GAN</t>
+          <t>Taylor Swift: The Eras Tour</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$95,043,350</t>
+          <t>$92,804,678</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dungeons &amp; Dragons: Honor Among Thieves</t>
+          <t>The Equalizer 3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$93,277,026</t>
+          <t>$90,557,759</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>The Equalizer 3</t>
+          <t>The Nun II</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$90,567,493</t>
+          <t>$83,754,922</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>The Nun II</t>
+          <t>Meg 2: The Trench</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$83,747,686</t>
+          <t>$82,600,317</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Meg 2: The Trench</t>
+          <t>Insidious: The Red Door</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$82,600,317</t>
+          <t>$82,156,962</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Insidious: The Red Door</t>
+          <t>Blue Beetle</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$82,156,962</t>
+          <t>$72,141,292</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Blue Beetle</t>
+          <t>Haunted Mansion</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$71,873,358</t>
+          <t>$67,513,495</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Haunted Mansion</t>
+          <t>Evil Dead Rise</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$67,521,588</t>
+          <t>$67,233,054</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Evil Dead Rise</t>
+          <t>Cocaine Bear</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$67,233,054</t>
+          <t>$64,388,510</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cocaine Bear</t>
+          <t>Shazam! Fury of the Gods</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$64,388,510</t>
+          <t>$57,638,006</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A Man Called Otto</t>
+          <t>Air</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$64,228,358</t>
+          <t>$52,460,106</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Shazam! Fury of the Gods</t>
+          <t>Jesus Revolution</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$57,638,006</t>
+          <t>$52,102,987</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Air</t>
+          <t>No Hard Feelings</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$52,460,106</t>
+          <t>$50,452,282</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Jesus Revolution</t>
+          <t>PAW Patrol: The Mighty Movie</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$52,102,987</t>
+          <t>$49,774,003</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>No Hard Feelings</t>
+          <t>Talk to Me</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$50,452,282</t>
+          <t>$48,192,329</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PAW Patrol: The Mighty Movie</t>
+          <t>The Exorcist: Believer</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$49,886,716</t>
+          <t>$44,906,700</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Talk to Me</t>
+          <t>Gran Turismo</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$48,192,329</t>
+          <t>$43,549,647</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>The Exorcist: Believer</t>
+          <t>The Boogeyman</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$44,926,950</t>
+          <t>$43,244,282</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Gran Turismo</t>
+          <t>Saw X</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$43,552,596</t>
+          <t>$41,408,568</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>The Boogeyman</t>
+          <t>80 for Brady</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$43,244,282</t>
+          <t>$39,330,588</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Saw X</t>
+          <t>A Haunting in Venice</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$41,429,120</t>
+          <t>$38,889,728</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>80 for Brady</t>
+          <t>Knock at the Cabin</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$39,330,588</t>
+          <t>$35,397,980</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Taylor Swift: The Eras Tour</t>
+          <t>Missing</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$39,000,000</t>
+          <t>$32,502,025</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A Haunting in Venice</t>
+          <t>The Creator</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$38,993,956</t>
+          <t>$32,439,376</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Knock at the Cabin</t>
+          <t>Plane</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$35,397,980</t>
+          <t>$32,111,181</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$32,502,025</t>
+          <t>$32,062,904</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>The Creator</t>
+          <t>Asteroid City</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$32,405,744</t>
+          <t>$28,153,025</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Plane</t>
+          <t>My Big Fat Greek Wedding 3</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$32,111,181</t>
+          <t>$28,132,380</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>Magic Mike's Last Dance</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$32,062,904</t>
+          <t>$26,005,156</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Asteroid City</t>
+          <t>Strays</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$28,153,025</t>
+          <t>$23,988,885</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>My Big Fat Greek Wedding 3</t>
+          <t>Are You There God? It's Me, Margaret.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$28,132,240</t>
+          <t>$20,372,406</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Magic Mike's Last Dance</t>
+          <t>The Pope's Exorcist</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$26,005,156</t>
+          <t>$20,009,380</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Strays</t>
+          <t>The Blackening</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$23,988,885</t>
+          <t>$17,707,207</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Are You There God? It's Me, Margaret.</t>
+          <t>Book Club: The Next Chapter</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$20,372,406</t>
+          <t>$17,556,340</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>The Pope's Exorcist</t>
+          <t>Pathaan</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$20,009,380</t>
+          <t>$17,487,476</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>The Blackening</t>
+          <t>Renfield</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$17,707,207</t>
+          <t>$17,152,625</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Book Club: The Next Chapter</t>
+          <t>The Covenant</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$17,556,340</t>
+          <t>$16,938,039</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Pathaan</t>
+          <t>Champions</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$17,487,476</t>
+          <t>$16,271,910</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Black Panther: Wakanda Forever</t>
+          <t>Expend4bles</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$17,329,414</t>
+          <t>$16,244,207</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Renfield</t>
+          <t>Ruby Gillman, Teenage Kraken</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$17,152,625</t>
+          <t>$15,753,600</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>The Covenant</t>
+          <t>Titanic25 Year Anniversary</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$16,938,039</t>
+          <t>$15,033,795</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Champions</t>
+          <t>Jawan</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$16,271,910</t>
+          <t>$14,735,611</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Expend4bles</t>
+          <t>The Blind</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$16,237,080</t>
+          <t>$13,900,442</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Ruby Gillman, Teenage Kraken</t>
+          <t>The Last Voyage of the Demeter</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$15,753,600</t>
+          <t>$13,637,180</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Titanic25 Year Anniversary</t>
+          <t>Joy Ride</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$15,033,795</t>
+          <t>$12,897,789</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Jawan</t>
+          <t>Dumb Money</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$14,735,611</t>
+          <t>$12,606,487</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>The Blind</t>
+          <t>About My Father</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$13,973,400</t>
+          <t>$12,089,391</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>The Last Voyage of the Demeter</t>
+          <t>His Only Son</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$13,637,180</t>
+          <t>$12,084,084</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Joy Ride</t>
+          <t>Bottoms</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$12,897,789</t>
+          <t>$12,000,106</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Dumb Money</t>
+          <t>Past Lives</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$12,626,141</t>
+          <t>$10,923,569</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>The Whale</t>
+          <t>Suzume</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$12,269,350</t>
+          <t>$10,760,901</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>About My Father</t>
+          <t>The Machine</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$12,089,391</t>
+          <t>$10,458,331</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>His Only Son</t>
+          <t>Demon Slayer: Kimetsu No Yaiba - To the Swordsmith Village</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$12,084,084</t>
+          <t>$10,117,806</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Bottoms</t>
+          <t>House Party</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$11,946,820</t>
+          <t>$9,002,247</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Past Lives</t>
+          <t>Beau Is Afraid</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$10,923,569</t>
+          <t>$8,176,562</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Suzume</t>
+          <t>BTS: Yet to Come in Cinemas</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$10,760,901</t>
+          <t>$8,093,270</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>The Machine</t>
+          <t>The Hill</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$10,458,331</t>
+          <t>$7,665,865</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Whitney Houston: I Wanna Dance with Somebody</t>
+          <t>Sisu</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$10,451,167</t>
+          <t>$7,265,622</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Demon Slayer: Kimetsu No Yaiba - To the Swordsmith Village</t>
+          <t>Star Wars: Episode VI - Return of the Jedi2023 Re-release</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$10,117,806</t>
+          <t>$7,259,924</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>House Party</t>
+          <t>Coraline2023 Re-release (remastered)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$9,002,247</t>
+          <t>$7,149,366</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Everything Everywhere All at Once</t>
+          <t>Retribution</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$8,410,284</t>
+          <t>$6,935,813</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Beau Is Afraid</t>
+          <t>Operation Fortune: Ruse de Guerre</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$7,740,323</t>
+          <t>$6,496,125</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>The Hill</t>
+          <t>Love Again</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$7,665,865</t>
+          <t>$6,230,837</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sisu</t>
+          <t>The Chosen Season 3 Finale</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$7,265,622</t>
+          <t>$5,525,069</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Star Wars: Episode VI - Return of the Jedi2023 Re-release</t>
+          <t>Nefarious</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$7,259,924</t>
+          <t>$5,433,685</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Coraline2023 Re-release (remastered)</t>
+          <t>Big George Foreman</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$7,149,366</t>
+          <t>$5,426,772</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Retribution</t>
+          <t>Infinity Pool</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$6,932,307</t>
+          <t>$5,078,400</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Operation Fortune: Ruse de Guerre</t>
+          <t>The Wandering Earth II</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$6,496,125</t>
+          <t>$5,023,132</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BTS: Yet to Come in Cinemas</t>
+          <t>You Hurt My Feelings</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$6,350,496</t>
+          <t>$4,830,788</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Babylon</t>
+          <t>Kandahar</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$6,268,558</t>
+          <t>$4,813,132</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Love Again</t>
+          <t>Golda</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$6,230,837</t>
+          <t>$4,766,279</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>The Fabelmans</t>
+          <t>It Lives Inside</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$5,541,550</t>
+          <t>$4,662,146</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>The Chosen Season 3 Finale</t>
+          <t>Hypnotic</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$5,525,069</t>
+          <t>$4,500,169</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Nefarious</t>
+          <t>Stop Making Sense2023  Re-release</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$5,433,685</t>
+          <t>$4,497,980</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Big George Foreman</t>
+          <t>Marlowe</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$5,426,772</t>
+          <t>$4,350,243</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Women Talking</t>
+          <t>The Amazing Maurice</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$5,321,627</t>
+          <t>$4,303,645</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Infinity Pool</t>
+          <t>Mummies</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$5,078,400</t>
+          <t>$4,275,970</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>You Hurt My Feelings</t>
+          <t>Theater Camp</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$4,830,788</t>
+          <t>$4,009,945</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Kandahar</t>
+          <t>Ponniyin Selvan: Part Two</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$4,813,132</t>
+          <t>$3,813,000</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Golda</t>
+          <t>Left Behind: Rise of the Antichrist</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$4,746,373</t>
+          <t>$3,649,422</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>It Lives Inside</t>
+          <t>The Journey: A Music Special from Andrea Bocelli</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$4,642,678</t>
+          <t>$3,574,915</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Hypnotic</t>
+          <t>Chevalier</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$4,500,169</t>
+          <t>$3,541,159</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Marlowe</t>
+          <t>Mafia Mamma</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$4,350,243</t>
+          <t>$3,496,761</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>The Amazing Maurice</t>
+          <t>A Thousand and One</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$4,303,645</t>
+          <t>$3,400,020</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Mummies</t>
+          <t>Hocus Pocus30th Anniversary re-release</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>$4,275,970</t>
+          <t>$3,266,926</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Theater Camp</t>
+          <t>2023 Oscar Nominated Short Films: Live Action</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>$4,009,945</t>
+          <t>$3,025,631</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Stop Making Sense2023  Re-release</t>
+          <t>Jurassic Park2023 Re-release (30th Anniversary)</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>$3,869,353</t>
+          <t>$2,970,355</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Ponniyin Selvan: Part Two</t>
+          <t>Tu Jhoothi Main Makkaar</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>$3,813,000</t>
+          <t>$2,503,604</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Left Behind: Rise of the Antichrist</t>
+          <t>Come Out in Jesus Name</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>$3,649,422</t>
+          <t>$2,500,574</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>The Journey: A Music Special from Andrea Bocelli</t>
+          <t>The Miracle Club</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>$3,574,915</t>
+          <t>$2,391,663</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Chevalier</t>
+          <t>A Good Person</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>$3,541,159</t>
+          <t>$2,210,465</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Mafia Mamma</t>
+          <t>Moving On</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>$3,496,761</t>
+          <t>$2,136,832</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>The Wandering Earth II</t>
+          <t>Fear</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>$3,444,487</t>
+          <t>$2,090,261</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A Thousand and One</t>
+          <t>Skinamarink</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>$3,400,020</t>
+          <t>$2,052,272</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Hocus Pocus30th Anniversary re-release</t>
+          <t>Jules</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>$3,289,887</t>
+          <t>$1,924,922</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Violent Night</t>
+          <t>Somewhere in Queens</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>$3,278,955</t>
+          <t>$1,802,442</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2023 Oscar Nominated Short Films: Live Action</t>
+          <t>Winnie the Pooh: Blood and Honey</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>$3,025,631</t>
+          <t>$1,750,639</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Living</t>
+          <t>Lost in the Stars</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>$2,984,305</t>
+          <t>$1,721,446</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Jurassic Park2023 Re-release (30th Anniversary)</t>
+          <t>Oldboy2023 Re-release</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>$2,970,355</t>
+          <t>$1,720,117</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>The Menu</t>
+          <t>Creation of the Gods I: Kingdom of Storms</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>$2,779,574</t>
+          <t>$1,674,780</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Tu Jhoothi Main Makkaar</t>
+          <t>Route 60: The Biblical Highway</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>$2,503,604</t>
+          <t>$1,606,339</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Come Out in Jesus Name</t>
+          <t>That Time I Got Reincarnated as a Slime the Movie: Scarlet Bond</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>$2,500,574</t>
+          <t>$1,588,491</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>The Miracle Club</t>
+          <t>Polite Society</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>$2,362,619</t>
+          <t>$1,545,600</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A Good Person</t>
+          <t>The Quiet Girl</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>$2,210,465</t>
+          <t>$1,500,014</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Moving On</t>
+          <t>BlackBerry</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>$2,136,832</t>
+          <t>$1,476,597</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Skinamarink</t>
+          <t>Spirited Away2023 Re-release (Live on Stage)</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>$2,052,272</t>
+          <t>$1,455,081</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Jules</t>
+          <t>Maybe I Do</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>$1,924,922</t>
+          <t>$1,293,722</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Somewhere in Queens</t>
+          <t>Billie Eilish Live at the O2</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>$1,802,442</t>
+          <t>$1,290,000</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Winnie the Pooh: Blood and Honey</t>
+          <t>The First Slam Dunk</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>$1,750,639</t>
+          <t>$1,275,149</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Fear</t>
+          <t>The Lost King</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>$1,735,359</t>
+          <t>$1,188,032</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Lost in the Stars</t>
+          <t>The Lord of the Rings: The Return of the King2023 Re-release (20th Anniversary)</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>$1,721,446</t>
+          <t>$1,176,085</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Oldboy2023 Re-release</t>
+          <t>Camp Hideout</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>$1,720,117</t>
+          <t>$1,115,754</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Creation of the Gods I: Kingdom of Storms</t>
+          <t>Close</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>$1,602,988</t>
+          <t>$1,100,113</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>That Time I Got Reincarnated as a Slime the Movie: Scarlet Bond</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>$1,588,491</t>
+          <t>$1,097,067</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>The Banshees of Inisherin</t>
+          <t>Knights of the Zodiac</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>$1,555,301</t>
+          <t>$1,090,155</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Polite Society</t>
+          <t>The Roundup: No Way Out</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>$1,545,600</t>
+          <t>$909,411</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>The Quiet Girl</t>
+          <t>Inside</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>$1,500,014</t>
+          <t>$897,190</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BlackBerry</t>
+          <t>Fool's Paradise</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>$1,476,598</t>
+          <t>$855,173</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Spirited Away2023 Re-release (Live on Stage)</t>
+          <t>Paint</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>$1,455,081</t>
+          <t>$811,739</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Maybe I Do</t>
+          <t>Hidden Blade</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>$1,293,722</t>
+          <t>$803,189</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Billie Eilish Live at the O2</t>
+          <t>Return to Seoul</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>$1,290,000</t>
+          <t>$798,774</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>The First Slam Dunk</t>
+          <t>The Devil Conspiracy</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>$1,275,149</t>
+          <t>$765,218</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Tár</t>
+          <t>Roll with It</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>$1,193,875</t>
+          <t>$757,981</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>The Lost King</t>
+          <t>Showing Up</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>$1,189,307</t>
+          <t>$754,483</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>The Lord of the Rings: The Return of the King2023 Re-release (20th Anniversary)</t>
+          <t>How to Blow Up a Pipeline</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>$1,176,085</t>
+          <t>$750,010</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Strange World</t>
+          <t>Rally Road Racers</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>$1,120,039</t>
+          <t>$744,169</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Camp Hideout</t>
+          <t>It Ain't Over</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>$1,112,632</t>
+          <t>$705,355</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Close</t>
+          <t>Shortcomings</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>$1,100,113</t>
+          <t>$675,257</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Back on the Strip</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>$1,097,067</t>
+          <t>$669,472</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Knights of the Zodiac</t>
+          <t>Master Gardener</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>$1,090,155</t>
+          <t>$667,114</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Broker</t>
+          <t>The Royal Hotel</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>$1,001,892</t>
+          <t>$639,785</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Showing Up</t>
+          <t>Shin Ultraman</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>$972,074</t>
+          <t>$601,490</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>The Roundup: No Way Out</t>
+          <t>The Thorn</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>$909,411</t>
+          <t>$577,004</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Inside</t>
+          <t>The Way2023  Re-release</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>$897,190</t>
+          <t>$567,448</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Fool's Paradise</t>
+          <t>CatVideoFest 2023</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>$855,173</t>
+          <t>$566,593</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Paint</t>
+          <t>Of an Age</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>$811,739</t>
+          <t>$556,585</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Return to Seoul</t>
+          <t>Passages</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>$776,427</t>
+          <t>$551,611</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Hidden Blade</t>
+          <t>Sweetwater</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>$770,276</t>
+          <t>$541,633</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>The Devil Conspiracy</t>
+          <t>Consecration</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>$765,218</t>
+          <t>$538,551</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Route 60: The Biblical Highway</t>
+          <t>Sanctuary</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>$764,316</t>
+          <t>$535,201</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Roll with It</t>
+          <t>The Good Mother</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>$757,981</t>
+          <t>$503,378</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>How to Blow Up a Pipeline</t>
+          <t>Crouching Tiger, Hidden Dragon2023 Re-release</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>$750,010</t>
+          <t>$451,549</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Rally Road Racers</t>
+          <t>The Son</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>$711,005</t>
+          <t>$449,650</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>It Ain't Over</t>
+          <t>A Father's Heart</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>$705,355</t>
+          <t>$447,912</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Devotion</t>
+          <t>When Evil Lurks</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>$673,996</t>
+          <t>$425,155</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Shortcomings</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>$669,840</t>
+          <t>$417,428</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Back on the Strip</t>
+          <t>The Essential Church</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>$669,472</t>
+          <t>$412,550</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Master Gardener</t>
+          <t>Aristotle and Dante Discover the Secrets of the Universe</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>$667,114</t>
+          <t>$407,838</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Corsage</t>
+          <t>Amerikatsi</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$638,320</t>
+          <t>$394,998</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>EO</t>
+          <t>Mending the Line</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$623,924</t>
+          <t>$379,890</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Shin Ultraman</t>
+          <t>Strange Way of Life</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$601,490</t>
+          <t>$375,414</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>The Thorn</t>
+          <t>She Came to Me</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$577,004</t>
+          <t>$360,000</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>The Way2023  Re-release</t>
+          <t>Dicks: The Musical</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$567,448</t>
+          <t>$354,180</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CatVideoFest 2023</t>
+          <t>Mother Teresa &amp; Me</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>$566,593</t>
+          <t>$345,937</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Of an Age</t>
+          <t>Go West</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>$556,585</t>
+          <t>$340,017</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Sweetwater</t>
+          <t>Terrifier</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>$541,633</t>
+          <t>$339,946</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Aftersun</t>
+          <t>Selfiee</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>$539,031</t>
+          <t>$335,775</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Consecration</t>
+          <t>Wild Life</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>$538,551</t>
+          <t>$326,184</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Sanctuary</t>
+          <t>Children of the Corn</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>$535,201</t>
+          <t>$325,583</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>The Royal Hotel</t>
+          <t>Waltair Veerayya</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>$505,502</t>
+          <t>$320,000</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>The Good Mother</t>
+          <t>Outlaw Johnny Black</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>$503,378</t>
+          <t>$319,848</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Triangle of Sadness</t>
+          <t>The Lesson</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>$490,678</t>
+          <t>$310,746</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Crouching Tiger, Hidden Dragon2023 Re-release</t>
+          <t>Psycho-Pass: Providence</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>$451,549</t>
+          <t>$309,757</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A Father's Heart</t>
+          <t>UFC 291: Poirier vs. Gaethje 2</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$447,912</t>
+          <t>$308,825</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>The Son</t>
+          <t>Joyland</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$424,964</t>
+          <t>$306,500</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>The Inventor</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$414,257</t>
+          <t>$306,385</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>The Essential Church</t>
+          <t>The Eight Mountains</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$412,550</t>
+          <t>$302,456</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Aristotle and Dante Discover the Secrets of the Universe</t>
+          <t>Mirando Al Cielo</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$407,838</t>
+          <t>$295,539</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Amerikatsi</t>
+          <t>Dreamin' Wild</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$384,510</t>
+          <t>$294,399</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Mending the Line</t>
+          <t>Southern Gospel</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$379,890</t>
+          <t>$293,496</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Strange Way of Life</t>
+          <t>School of Magical Animals</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$375,792</t>
+          <t>$288,414</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>When Evil Lurks</t>
+          <t>Born to Fly</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$363,942</t>
+          <t>$277,011</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>She Came to Me</t>
+          <t>Every Body</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>$360,000</t>
+          <t>$273,860</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Dicks: The Musical</t>
+          <t>Fremont</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>$354,180</t>
+          <t>$260,905</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Mother Teresa &amp; Me</t>
+          <t>RRR Fan CelebRRRation2023 Re-release</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>$345,937</t>
+          <t>$256,566</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Go West</t>
+          <t>Afire</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>$340,017</t>
+          <t>$244,803</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Terrifier</t>
+          <t>Contempt4k Restoration - 60th Anniversary</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>$339,946</t>
+          <t>$236,573</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Selfiee</t>
+          <t>I Can</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>$335,775</t>
+          <t>$230,075</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Turn Every Page: The Adventures of Robert Caro and Robert Gottlieb</t>
+          <t>Malum</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>$334,159</t>
+          <t>$221,738</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Passages</t>
+          <t>Shelter in Solitude</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>$328,516</t>
+          <t>$216,053</t>
         </is>
       </c>
     </row>
